--- a/docs/PTA2_DDC_100/PTA2_DDC_100_06.08.24_output.xlsx
+++ b/docs/PTA2_DDC_100/PTA2_DDC_100_06.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L98"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731787444.786036</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731787447.3671675</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731787444.786036.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731787447.3671675.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>280.59</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>279.62</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.9699999999999704</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731787447.9511755</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731787450.348793</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731787447.9511755.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731787450.348793.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>279.02</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>279.66</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.6400000000000432</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731787452.0994432</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731787453.9863017</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731787452.0994432.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731787453.9863017.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>279.8</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>279.27</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.5300000000000296</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731787454.0830643</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731787459.4884746</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731787454.0830643.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731787459.4884746.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>278.85</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>277.37</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-1.480000000000018</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.53</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731787459.670195</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731787462.6733344</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731787459.670195.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731787462.6733344.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>278.26</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>278.81</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.5500000000000114</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731787464.2319713</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731787464.5813818</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731787464.2319713.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731787464.5813818.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>278.51</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>279.35</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.8400000000000318</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -851,43 +903,49 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731787466.7713048</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731787466.7713048.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731787466.7713048.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>279.7</v>
       </c>
-      <c r="J9" t="n">
-        <v>279.7</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
       <c r="L9" t="n">
+        <v>279.69</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="N9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731787467.42648</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731787470.6133387</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731787467.42648.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731787470.6133387.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>129.29</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>128.53</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.7599999999999909</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731787472.9766424</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731787473.550565</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731787472.9766424.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731787473.550565.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>128.57</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>128.95</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.3799999999999955</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731787475.5416825</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731787477.4194992</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731787475.5416825.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731787477.4194992.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>129.3</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>129.05</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.25</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -1051,51 +1127,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731787478.3712249</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731787483.4620686</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731787478.3712249.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731787483.4620686.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>128.79</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>127.99</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.7999999999999972</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.62</v>
       </c>
     </row>
@@ -1103,51 +1185,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731787483.735623</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731787489.943235</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731787483.735623.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731787489.943235.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>128.47</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>128.53</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -1155,51 +1243,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731787491.2603495</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731787493.9895468</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731787491.2603495.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731787493.9895468.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6494.5</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6453.5</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>41</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.63</v>
       </c>
     </row>
@@ -1207,51 +1301,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731787494.1167016</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731787497.4131913</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731787494.1167016.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731787497.4131913.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6447</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6444</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-3</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731787497.7230628</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731787500.5404377</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731787497.7230628.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731787500.5404377.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6450.5</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6446.5</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>4</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1311,51 +1417,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731787500.6410618</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731787506.4675589</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731787500.6410618.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731787506.4675589.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6433.5</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6377</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-56.5</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-0.88</v>
       </c>
     </row>
@@ -1363,51 +1475,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731787506.6296613</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731787510.8562608</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731787506.6296613.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731787510.8562608.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>6389.5</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>6421.5</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-32</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -1415,95 +1533,107 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731787513.2165663</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731787513.2165663.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731787513.2165663.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6435.5</v>
       </c>
-      <c r="J20" t="n">
-        <v>6435.5</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>6448</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731787517.8900828</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731787520.1367273</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731787517.8900828.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731787520.1367273.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>497.5</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>497.7</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.1999999999999886</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1511,51 +1641,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731787520.60576</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731787522.9018836</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731787520.60576.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731787522.9018836.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>497.55</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>497.15</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.4000000000000341</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1563,51 +1699,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731787523.189963</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731787527.838352</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731787523.189963.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731787527.838352.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>495.5</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>493.2</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-2.300000000000011</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.46</v>
       </c>
     </row>
@@ -1615,51 +1757,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731787527.9649055</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731787528.400676</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731787527.9649055.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731787528.400676.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>493.8</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>494.15</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.3499999999999659</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -1667,95 +1815,107 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731787534.2079675</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731787534.2079675.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731787534.2079675.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>495.3</v>
       </c>
-      <c r="J25" t="n">
-        <v>495.3</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>495.6</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-0.3000000000000114</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731787539.990082</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731787540.8663056</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731787539.990082.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731787540.8663056.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>225.13</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>226.03</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.9000000000000057</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -1763,51 +1923,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731787542.4231408</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731787544.5461903</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731787542.4231408.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731787544.5461903.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>226.17</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>226.48</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-0.3100000000000023</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -1815,51 +1981,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731787545.2805963</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731787548.8407264</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731787545.2805963.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731787548.8407264.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>225.18</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>225.18</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1867,51 +2039,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731787549.1247752</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731787549.426671</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731787549.1247752.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731787549.426671.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>226.2</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>225.22</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.9799999999999898</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -1919,95 +2097,107 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731787556.1706257</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731787556.1706257.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731787556.1706257.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>226.53</v>
       </c>
-      <c r="J30" t="n">
-        <v>226.53</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>226.47</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731787560.8975744</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731787562.7575078</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731787560.8975744.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731787562.7575078.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>1007.2</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>1009.8</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>2.599999999999909</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -2015,51 +2205,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731787564.7399192</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731787566.1143844</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731787564.7399192.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731787566.1143844.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1010.6</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1007.8</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>2.800000000000068</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -2067,51 +2263,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731787566.372812</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731787569.9286447</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731787566.372812.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731787569.9286447.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1007</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1005.2</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-1.799999999999955</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -2119,51 +2321,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731787570.7618163</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731787571.5689988</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731787570.7618163.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731787571.5689988.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1001.4</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>1003.6</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>2.200000000000045</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -2171,51 +2379,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731787571.6447585</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731787571.722737</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731787571.6447585.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731787571.722737.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1001.8</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1004.2</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>2.400000000000091</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -2223,51 +2437,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731787572.203502</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731787573.3828096</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731787572.203502.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731787573.3828096.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1005.6</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1004.4</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>1.200000000000045</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -2275,95 +2495,107 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731787578.3109248</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731787578.3109248.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731787578.3109248.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1007.4</v>
       </c>
-      <c r="J37" t="n">
-        <v>1007.4</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1008</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.6000000000000227</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731787582.7033048</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731787583.1727908</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/CNY1731787582.7033048.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/CNY1731787583.1727908.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>11.81</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>11.84</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.02999999999999936</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -2371,51 +2603,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731787584.9037635</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731787594.2342215</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/CNY1731787584.9037635.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/CNY1731787594.2342215.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>11.862</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>11.922</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.0600000000000005</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>-0.51</v>
       </c>
     </row>
@@ -2423,51 +2661,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731787595.8933728</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731787596.6590295</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/CNY1731787595.8933728.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/CNY1731787596.6590295.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>11.912</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>11.926</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.01399999999999935</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -2475,51 +2719,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731787602.7420964</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731787604.418844</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731787602.7420964.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731787604.418844.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>125.38</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>124.92</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.4599999999999937</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -2527,51 +2777,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731787604.934507</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731787606.7472143</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731787604.934507.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731787606.7472143.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>124.58</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>125.02</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.4399999999999977</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -2579,51 +2835,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731787608.6613731</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731787610.6347337</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731787608.6613731.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731787610.6347337.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>125.1</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>124.98</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.1199999999999903</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -2631,51 +2893,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731787612.4423068</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731787615.4916158</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731787612.4423068.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731787615.4916158.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>124.8</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>124.8</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2683,51 +2951,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731787615.8748877</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731787618.7296846</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731787615.8748877.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731787618.7296846.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>125.1</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>125.12</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.02000000000001023</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -2735,51 +3009,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731787619.4707527</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731787620.2114666</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731787619.4707527.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731787620.2114666.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>124.92</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>125.24</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.3199999999999932</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -2787,51 +3067,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731787624.4540246</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731787626.2337356</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731787624.4540246.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731787626.2337356.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>162.86</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>160.4</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>2.460000000000008</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>1.51</v>
       </c>
     </row>
@@ -2839,51 +3125,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731787626.3528872</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731787629.152254</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731787626.3528872.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731787629.152254.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>159.5</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>159.74</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.2400000000000091</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -2891,51 +3183,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731787629.7305615</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731787632.2990859</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731787629.7305615.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731787632.2990859.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>159.78</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>159.86</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-0.08000000000001251</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -2943,51 +3241,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731787633.470159</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731787637.7815678</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731787633.470159.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731787637.7815678.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>159.56</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>159.14</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-0.4200000000000159</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -2995,51 +3299,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731787638.1305342</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731787638.9972537</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731787638.1305342.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731787638.9972537.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>159.78</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>159.06</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.7199999999999989</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -3047,43 +3357,49 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731787644.9217107</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731787644.9217107.png</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731787644.9217107.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>160.26</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>160.26</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3091,51 +3407,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731787648.6894844</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731787650.2958226</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731787648.6894844.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731787650.2958226.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>48.595</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>48.875</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.2800000000000011</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -3143,51 +3465,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731787651.5359156</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731787655.5895314</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731787651.5359156.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731787655.5895314.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>48.975</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>48.905</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.07000000000000028</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -3195,51 +3523,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731787655.6044993</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731787660.1344543</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731787655.6044993.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731787660.1344543.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>48.905</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>48.795</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.1099999999999994</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -3247,51 +3581,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731787660.2967079</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731787663.0201726</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731787660.2967079.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731787663.0201726.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>48.92</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>48.905</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.01500000000000057</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -3299,51 +3639,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731787664.1403754</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731787665.3661041</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731787664.1403754.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731787665.3661041.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>48.86</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>48.985</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.125</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -3351,95 +3697,107 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731787667.3974319</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731787667.3974319.png</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731787667.3974319.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>49</v>
       </c>
-      <c r="J58" t="n">
-        <v>49</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>49.105</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-0.1049999999999969</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731787668.7445405</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731787670.3392165</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731787668.7445405.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731787670.3392165.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>1401</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>1387.4</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>13.59999999999991</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.97</v>
       </c>
     </row>
@@ -3447,51 +3805,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731787672.5225453</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731787676.1325133</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731787672.5225453.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731787676.1325133.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>1382.8</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>1385</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>2.200000000000045</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -3499,51 +3863,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731787676.316618</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731787676.6186757</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731787676.316618.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731787676.6186757.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>1387.8</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>1385.2</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>2.599999999999909</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -3551,51 +3921,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731787677.028082</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731787677.1795304</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731787677.028082.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731787677.1795304.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>1382.6</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>1386.6</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>4</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -3603,51 +3979,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731787677.5770938</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731787682.1902468</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731787677.5770938.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731787682.1902468.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>1383.4</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>1363.2</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-20.20000000000005</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>-1.46</v>
       </c>
     </row>
@@ -3655,51 +4037,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731787689.477523</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731787690.0716174</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731787689.477523.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731787690.0716174.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>60.52</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>59.79</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.730000000000004</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>1.21</v>
       </c>
     </row>
@@ -3707,51 +4095,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731787692.7950044</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731787694.943979</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731787692.7950044.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731787694.943979.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>59.57</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>59.75</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.1799999999999997</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3759,51 +4153,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731787695.958254</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731787697.516951</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731787695.958254.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731787697.516951.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>59.81</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>59.68</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.1300000000000026</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -3811,51 +4211,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731787698.2047477</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731787702.0534806</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731787698.2047477.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731787702.0534806.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>59.51</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>59.37</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.1400000000000006</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -3863,51 +4269,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731787702.6208153</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731787705.2435727</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731787702.6208153.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731787705.2435727.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>59.54</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>59.61</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-0.07000000000000028</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -3915,95 +4327,107 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731787705.5620832</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731787705.5620832.png</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731787705.5620832.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>59.79</v>
       </c>
-      <c r="J69" t="n">
-        <v>59.79</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>60.26</v>
+      </c>
+      <c r="M69" t="n">
+        <v>-0.4699999999999989</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.79</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731787710.3877563</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731787712.1167986</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731787710.3877563.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731787712.1167986.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>97.34</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>96.79000000000001</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.5499999999999972</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.5700000000000001</v>
       </c>
     </row>
@@ -4011,51 +4435,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731787712.527433</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731787715.9891422</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731787712.527433.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731787715.9891422.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>96.47</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>96.64</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.1700000000000017</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -4063,51 +4493,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731787717.2720196</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731787719.5568836</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731787717.2720196.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731787719.5568836.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>96.79000000000001</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>96.66</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.1300000000000097</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -4115,51 +4551,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731787720.5808177</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731787725.0467863</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731787720.5808177.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731787725.0467863.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>96.42</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>95.83</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-0.5900000000000034</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>-0.61</v>
       </c>
     </row>
@@ -4167,51 +4609,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731787725.180987</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731787725.5652883</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731787725.180987.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731787725.5652883.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>96.26000000000001</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>95.95999999999999</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.3000000000000114</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -4219,51 +4667,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731787728.9592218</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731787730.067535</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731787728.9592218.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731787730.067535.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>95.95</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>96.2</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.25</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -4271,51 +4725,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731787737.2869008</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731787739.017247</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/SELG1731787737.2869008.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/SELG1731787739.017247.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>56.05</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>56.14</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.09000000000000341</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -4323,51 +4783,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731787741.5696082</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731787746.0306158</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/SELG1731787741.5696082.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/SELG1731787746.0306158.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>55.78</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>55.5</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-0.2800000000000011</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -4375,51 +4841,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731787753.6269476</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731787757.6017718</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731787753.6269476.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731787757.6017718.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>144.2</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>143.76</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.4399999999999977</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -4427,51 +4899,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731787761.5414195</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731787761.9912293</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731787761.5414195.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731787761.9912293.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>143.32</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>144.1</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.7800000000000011</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -4479,51 +4957,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731787763.1182406</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731787766.3576834</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731787763.1182406.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731787766.3576834.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>143.04</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>143.18</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.1400000000000148</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -4531,51 +5015,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731787769.7119114</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731787772.3838542</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731787769.7119114.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731787772.3838542.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>143.98</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>143.64</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.3400000000000034</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -4583,51 +5073,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731787773.3715804</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731787776.223075</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731787773.3715804.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731787776.223075.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>20.142</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>19.978</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.1639999999999979</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>0.8099999999999999</v>
       </c>
     </row>
@@ -4635,51 +5131,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731787776.9256907</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731787786.344725</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731787776.9256907.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731787786.344725.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>19.96</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>19.758</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>-0.2020000000000017</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>-1.01</v>
       </c>
     </row>
@@ -4687,51 +5189,57 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731787787.6823597</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731787789.8175187</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731787787.6823597.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731787789.8175187.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>19.772</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>19.81</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>-0.03800000000000026</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -4739,51 +5247,57 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731787795.8591063</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731787798.5359814</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731787795.8591063.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731787798.5359814.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>670.15</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>668.1</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>2.049999999999955</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -4791,51 +5305,57 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731787804.501371</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731787809.03517</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731787804.501371.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731787809.03517.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>666.35</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>664.1</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>-2.25</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>-0.34</v>
       </c>
     </row>
@@ -4843,95 +5363,107 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731787809.5381145</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731787809.5381145.png</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731787809.5381145.png</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>669.1</v>
       </c>
-      <c r="J87" t="n">
-        <v>669.1</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0</v>
-      </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>670.5</v>
+      </c>
+      <c r="M87" t="n">
+        <v>-1.399999999999977</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731787817.8304937</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731787819.6830142</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731787817.8304937.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731787819.6830142.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>155.26</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>153.89</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>1.370000000000005</v>
       </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
         <v>0.88</v>
       </c>
     </row>
@@ -4939,51 +5471,57 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731787819.9341934</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731787825.1954386</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731787819.9341934.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731787825.1954386.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>153.33</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>152.34</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>-0.9900000000000091</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>-0.65</v>
       </c>
     </row>
@@ -4991,51 +5529,57 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731787828.1149237</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731787832.6632173</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731787828.1149237.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731787832.6632173.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>151.44</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>148.74</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>-2.699999999999989</v>
       </c>
-      <c r="L90" t="n">
+      <c r="N90" t="n">
         <v>-1.78</v>
       </c>
     </row>
@@ -5043,51 +5587,57 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731787835.1068342</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731787836.640321</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731787835.1068342.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731787836.640321.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>149.48</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>148.45</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>1.030000000000001</v>
       </c>
-      <c r="L91" t="n">
+      <c r="N91" t="n">
         <v>0.6899999999999999</v>
       </c>
     </row>
@@ -5095,95 +5645,107 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731787839.9272926</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731787839.9272926.png</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731787839.9272926.png</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>149.03</v>
       </c>
-      <c r="J92" t="n">
-        <v>149.03</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0</v>
-      </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>149.36</v>
+      </c>
+      <c r="M92" t="n">
+        <v>-0.3300000000000125</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731787844.753973</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731787854.4880588</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/FEES1731787844.753973.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/FEES1731787854.4880588.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>0.09570000000000001</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>0.09542</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>-0.0002800000000000025</v>
       </c>
-      <c r="L93" t="n">
+      <c r="N93" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -5191,51 +5753,57 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731787862.4960506</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731787864.1431944</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/MXI1731787862.4960506.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/MXI1731787864.1431944.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>2932</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>2912.7</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>19.30000000000018</v>
       </c>
-      <c r="L94" t="n">
+      <c r="N94" t="n">
         <v>0.66</v>
       </c>
     </row>
@@ -5243,51 +5811,57 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731787864.7765582</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731787867.2392907</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/MXI1731787864.7765582.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/MXI1731787867.2392907.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>2907.85</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>2914.4</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>6.550000000000182</v>
       </c>
-      <c r="L95" t="n">
+      <c r="N95" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -5295,51 +5869,57 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731787868.4378767</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731787870.293111</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/MXI1731787868.4378767.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/MXI1731787870.293111.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>2916.6</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>2913.3</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>3.299999999999727</v>
       </c>
-      <c r="L96" t="n">
+      <c r="N96" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -5347,51 +5927,57 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731787871.3521378</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731787875.8666549</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/MXI1731787871.3521378.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/MXI1731787875.8666549.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>2904</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>2892.5</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>-11.5</v>
       </c>
-      <c r="L97" t="n">
+      <c r="N97" t="n">
         <v>-0.4</v>
       </c>
     </row>
@@ -5399,51 +5985,57 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731787876.310495</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731787879.1149917</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/MXI1731787876.310495.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/MXI1731787879.1149917.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>2899.45</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>2901.55</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>-2.100000000000364</v>
       </c>
-      <c r="L98" t="n">
+      <c r="N98" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -5505,16 +6097,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.400000000000205</v>
+        <v>8.800000000000182</v>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.342857142857172</v>
+        <v>1.257142857142883</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F2" t="n">
         <v>0.13</v>
@@ -5527,13 +6119,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9500000000000455</v>
+        <v>0.9600000000000364</v>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1357142857142922</v>
+        <v>0.1371428571428623</v>
       </c>
       <c r="E3" t="n">
         <v>0.34</v>
@@ -5593,19 +6185,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-46.5</v>
+        <v>-59</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.75</v>
+        <v>-9.833333333333334</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.74</v>
+        <v>-0.9299999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.12</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="7">
@@ -5615,19 +6207,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3800000000000026</v>
+        <v>0.2750000000000057</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06333333333333376</v>
+        <v>0.04583333333333428</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7899999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="F7" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8">
@@ -5637,19 +6229,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8300000000000054</v>
+        <v>0.3600000000000065</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1383333333333342</v>
+        <v>0.06000000000000109</v>
       </c>
       <c r="E8" t="n">
-        <v>1.37</v>
+        <v>0.58</v>
       </c>
       <c r="F8" t="n">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9">
@@ -5681,19 +6273,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.289999999999992</v>
+        <v>-1.620000000000005</v>
       </c>
       <c r="C10" t="n">
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2579999999999984</v>
+        <v>-0.3240000000000009</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.8600000000000001</v>
+        <v>-1.08</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.17</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="11">
@@ -5747,16 +6339,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.569999999999993</v>
+        <v>1.629999999999995</v>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3139999999999986</v>
+        <v>0.3259999999999991</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6900000000000001</v>
+        <v>0.7200000000000001</v>
       </c>
       <c r="F13" t="n">
         <v>0.14</v>
@@ -5791,19 +6383,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.049999999999955</v>
+        <v>-2.349999999999966</v>
       </c>
       <c r="C15" t="n">
         <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.4099999999999909</v>
+        <v>-0.4699999999999932</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.41</v>
+        <v>-0.47</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.08</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="16">
@@ -5835,19 +6427,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.2000000000000455</v>
+        <v>-1.600000000000023</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.06666666666668182</v>
+        <v>-0.5333333333333409</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.02999999999999997</v>
+        <v>-0.24</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.01</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="18">
